--- a/experiment_results/table2,3.xlsx
+++ b/experiment_results/table2,3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gunheeyi/Desktop/ScreenShot BackUp/Google Drive/yearly/2021/KAIST/Fall/AISE/proj/cs454-project/experiment_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750617A8-C010-374D-81A8-13D18228F337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923BDB0A-66EE-0D40-8489-5DAF6C2306A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="29380" windowHeight="18700" xr2:uid="{99C981D0-6D21-D547-A0EF-4A071D5C00E4}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29340" windowHeight="18700" xr2:uid="{99C981D0-6D21-D547-A0EF-4A071D5C00E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -127,8 +127,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -455,7 +458,7 @@
   <dimension ref="A1:AB12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -470,104 +473,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="T2" s="2" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="T2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U2" s="2"/>
+      <c r="U2" s="3"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="L3" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
       <c r="J4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="3">
         <v>1</v>
       </c>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2">
+      <c r="N4" s="3"/>
+      <c r="O4" s="3">
         <v>2</v>
       </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2">
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3">
         <v>3</v>
       </c>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2">
+      <c r="R4" s="3"/>
+      <c r="S4" s="3">
         <v>4</v>
       </c>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2">
+      <c r="T4" s="3"/>
+      <c r="U4" s="3">
         <v>5</v>
       </c>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2">
+      <c r="V4" s="3"/>
+      <c r="W4" s="3">
         <v>6</v>
       </c>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2">
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3">
         <v>7</v>
       </c>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2" t="s">
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AB4" s="2"/>
+      <c r="AB4" s="3"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
@@ -649,165 +652,165 @@
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>17</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>27</v>
       </c>
-      <c r="D6" s="1">
-        <v>24</v>
-      </c>
-      <c r="E6" s="1">
-        <v>42</v>
-      </c>
-      <c r="F6" s="1">
-        <v>50</v>
-      </c>
-      <c r="G6" s="1">
-        <v>67</v>
-      </c>
-      <c r="H6" s="1">
+      <c r="D6" s="2">
+        <v>38</v>
+      </c>
+      <c r="E6" s="2">
+        <v>46</v>
+      </c>
+      <c r="F6" s="2">
+        <v>56</v>
+      </c>
+      <c r="G6" s="2">
         <v>94</v>
       </c>
-      <c r="I6" s="1">
-        <v>48</v>
-      </c>
-      <c r="J6" s="1">
+      <c r="H6" s="2">
+        <v>100</v>
+      </c>
+      <c r="I6" s="2">
+        <v>58</v>
+      </c>
+      <c r="J6" s="2">
+        <v>4</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1</v>
+      </c>
+      <c r="N6" s="2">
+        <v>101.69</v>
+      </c>
+      <c r="O6" s="2">
+        <v>2</v>
+      </c>
+      <c r="P6" s="2">
+        <v>111.71</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>2</v>
+      </c>
+      <c r="R6" s="2">
+        <v>121.74</v>
+      </c>
+      <c r="S6" s="2">
+        <v>3</v>
+      </c>
+      <c r="T6" s="2">
+        <v>244.16</v>
+      </c>
+      <c r="U6" s="2">
         <v>5</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M6" s="1">
-        <v>1</v>
-      </c>
-      <c r="N6" s="1">
-        <v>101.69</v>
-      </c>
-      <c r="O6" s="1">
-        <v>2</v>
-      </c>
-      <c r="P6" s="1">
-        <v>111.71</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>3</v>
-      </c>
-      <c r="R6" s="1">
-        <v>175.51</v>
-      </c>
-      <c r="S6" s="1">
-        <v>4</v>
-      </c>
-      <c r="T6" s="1">
-        <v>261.3</v>
-      </c>
-      <c r="U6" s="1">
+      <c r="V6" s="2">
+        <v>332.61</v>
+      </c>
+      <c r="W6" s="2">
         <v>5</v>
       </c>
-      <c r="V6" s="1">
-        <v>366.34</v>
-      </c>
-      <c r="W6" s="1">
-        <v>6</v>
-      </c>
-      <c r="X6" s="1">
-        <v>450.53</v>
-      </c>
-      <c r="Y6" s="1">
+      <c r="X6" s="2">
+        <v>327.64</v>
+      </c>
+      <c r="Y6" s="2">
         <v>7</v>
       </c>
-      <c r="Z6" s="1">
-        <v>519.49</v>
-      </c>
-      <c r="AA6" s="1">
+      <c r="Z6" s="2">
+        <v>489.57</v>
+      </c>
+      <c r="AA6" s="2">
         <v>5</v>
       </c>
-      <c r="AB6" s="1">
-        <v>371.42</v>
+      <c r="AB6" s="2">
+        <v>315.27999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="1">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
         <v>18</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>29</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>17</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="2">
         <v>31</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="2">
         <v>50</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="2">
         <v>100</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="2">
         <v>38</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="2">
         <v>7</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="1">
-        <v>0</v>
-      </c>
-      <c r="N7" s="1">
-        <v>0</v>
-      </c>
-      <c r="O7" s="1">
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
         <v>2</v>
       </c>
-      <c r="P7" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="1">
+      <c r="P7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2">
         <v>3</v>
       </c>
-      <c r="R7" s="1">
-        <v>0</v>
-      </c>
-      <c r="S7" s="1">
+      <c r="R7" s="2">
+        <v>0</v>
+      </c>
+      <c r="S7" s="2">
         <v>10</v>
       </c>
-      <c r="T7" s="1">
+      <c r="T7" s="2">
         <v>0.01</v>
       </c>
-      <c r="U7" s="1">
+      <c r="U7" s="2">
         <v>5</v>
       </c>
-      <c r="V7" s="1">
+      <c r="V7" s="2">
         <v>0.01</v>
       </c>
-      <c r="W7" s="1">
+      <c r="W7" s="2">
         <v>7</v>
       </c>
-      <c r="X7" s="1">
+      <c r="X7" s="2">
         <v>0.01</v>
       </c>
-      <c r="Y7" s="1">
+      <c r="Y7" s="2">
         <v>9</v>
       </c>
-      <c r="Z7" s="1">
+      <c r="Z7" s="2">
         <v>0.01</v>
       </c>
-      <c r="AA7" s="1">
+      <c r="AA7" s="2">
         <v>7</v>
       </c>
-      <c r="AB7" s="1">
+      <c r="AB7" s="2">
         <v>0.01</v>
       </c>
     </row>
@@ -815,165 +818,165 @@
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="1">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
         <v>24</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <v>33</v>
       </c>
-      <c r="F8" s="1">
-        <v>56</v>
-      </c>
-      <c r="G8" s="1">
+      <c r="F8" s="2">
+        <v>63</v>
+      </c>
+      <c r="G8" s="2">
         <v>94</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="2">
         <v>100</v>
       </c>
-      <c r="I8" s="1">
-        <v>49</v>
-      </c>
-      <c r="J8" s="1">
-        <v>4</v>
+      <c r="I8" s="2">
+        <v>50</v>
+      </c>
+      <c r="J8" s="2">
+        <v>6</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="1">
-        <v>0</v>
-      </c>
-      <c r="N8" s="1">
-        <v>0</v>
-      </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>13</v>
-      </c>
-      <c r="R8" s="1">
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>13</v>
+      </c>
+      <c r="R8" s="2">
         <v>5.5</v>
       </c>
-      <c r="S8" s="1">
+      <c r="S8" s="2">
         <v>9</v>
       </c>
-      <c r="T8" s="1">
+      <c r="T8" s="2">
         <v>4.1100000000000003</v>
       </c>
-      <c r="U8" s="1">
-        <v>13</v>
-      </c>
-      <c r="V8" s="1">
-        <v>5.83</v>
-      </c>
-      <c r="W8" s="1">
+      <c r="U8" s="2">
+        <v>12</v>
+      </c>
+      <c r="V8" s="2">
+        <v>5.33</v>
+      </c>
+      <c r="W8" s="2">
         <v>11</v>
       </c>
-      <c r="X8" s="1">
+      <c r="X8" s="2">
         <v>4.9400000000000004</v>
       </c>
-      <c r="Y8" s="1">
+      <c r="Y8" s="2">
         <v>11</v>
       </c>
-      <c r="Z8" s="1">
+      <c r="Z8" s="2">
         <v>4.76</v>
       </c>
-      <c r="AA8" s="1">
+      <c r="AA8" s="2">
         <v>11</v>
       </c>
-      <c r="AB8" s="1">
-        <v>4.97</v>
+      <c r="AB8" s="2">
+        <v>4.8899999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="1">
-        <v>0</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
         <v>64</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <v>67</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <v>79</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="2">
         <v>94</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="2">
         <v>94</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="2">
         <v>100</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="2">
         <v>79</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="2">
         <v>2</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="1">
-        <v>0</v>
-      </c>
-      <c r="N9" s="1">
-        <v>0</v>
-      </c>
-      <c r="O9" s="1">
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
         <v>12</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9" s="2">
         <v>0.12</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="Q9" s="2">
         <v>11</v>
       </c>
-      <c r="R9" s="1">
+      <c r="R9" s="2">
         <v>0.11</v>
       </c>
-      <c r="S9" s="1">
+      <c r="S9" s="2">
         <v>11</v>
       </c>
-      <c r="T9" s="1">
+      <c r="T9" s="2">
         <v>0.11</v>
       </c>
-      <c r="U9" s="1">
+      <c r="U9" s="2">
         <v>12</v>
       </c>
-      <c r="V9" s="1">
+      <c r="V9" s="2">
         <v>0.12</v>
       </c>
-      <c r="W9" s="1">
-        <v>13</v>
-      </c>
-      <c r="X9" s="1">
+      <c r="W9" s="2">
+        <v>13</v>
+      </c>
+      <c r="X9" s="2">
         <v>0.13</v>
       </c>
-      <c r="Y9" s="1">
-        <v>13</v>
-      </c>
-      <c r="Z9" s="1">
+      <c r="Y9" s="2">
+        <v>13</v>
+      </c>
+      <c r="Z9" s="2">
         <v>0.13</v>
       </c>
-      <c r="AA9" s="1">
+      <c r="AA9" s="2">
         <v>12</v>
       </c>
-      <c r="AB9" s="1">
+      <c r="AB9" s="2">
         <v>0.12</v>
       </c>
     </row>
@@ -981,266 +984,266 @@
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="1">
-        <v>0</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1">
-        <v>14</v>
-      </c>
-      <c r="E10" s="1">
-        <v>46</v>
-      </c>
-      <c r="F10" s="1">
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2">
+        <v>29</v>
+      </c>
+      <c r="E10" s="2">
         <v>63</v>
       </c>
-      <c r="G10" s="1">
-        <v>72</v>
-      </c>
-      <c r="H10" s="1">
-        <v>88</v>
-      </c>
-      <c r="I10" s="1">
-        <v>46</v>
-      </c>
-      <c r="J10" s="1">
-        <v>6</v>
+      <c r="F10" s="2">
+        <v>75</v>
+      </c>
+      <c r="G10" s="2">
+        <v>94</v>
+      </c>
+      <c r="H10" s="2">
+        <v>100</v>
+      </c>
+      <c r="I10" s="2">
+        <v>60</v>
+      </c>
+      <c r="J10" s="2">
+        <v>3</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="1">
-        <v>0</v>
-      </c>
-      <c r="N10" s="1">
-        <v>0</v>
-      </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>7</v>
-      </c>
-      <c r="R10" s="1">
-        <v>208.19</v>
-      </c>
-      <c r="S10" s="1">
-        <v>12</v>
-      </c>
-      <c r="T10" s="1">
-        <v>346.6</v>
-      </c>
-      <c r="U10" s="1">
-        <v>13</v>
-      </c>
-      <c r="V10" s="1">
-        <v>386.87</v>
-      </c>
-      <c r="W10" s="1">
-        <v>10</v>
-      </c>
-      <c r="X10" s="1">
-        <v>285.62</v>
-      </c>
-      <c r="Y10" s="1">
-        <v>10</v>
-      </c>
-      <c r="Z10" s="1">
-        <v>313.76</v>
-      </c>
-      <c r="AA10" s="1">
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>1</v>
+      </c>
+      <c r="P10" s="2">
+        <v>35.380000000000003</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>4</v>
+      </c>
+      <c r="R10" s="2">
+        <v>117.24</v>
+      </c>
+      <c r="S10" s="2">
+        <v>9</v>
+      </c>
+      <c r="T10" s="2">
+        <v>258.27</v>
+      </c>
+      <c r="U10" s="2">
         <v>11</v>
       </c>
-      <c r="AB10" s="1">
-        <v>321.8</v>
+      <c r="V10" s="2">
+        <v>323.87</v>
+      </c>
+      <c r="W10" s="2">
+        <v>8</v>
+      </c>
+      <c r="X10" s="2">
+        <v>226.61</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>9</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>279.31</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>8</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>251.06</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="1">
-        <v>67</v>
-      </c>
-      <c r="C11" s="1">
-        <v>64</v>
-      </c>
-      <c r="D11" s="1">
-        <v>86</v>
-      </c>
-      <c r="E11" s="1">
-        <v>88</v>
-      </c>
-      <c r="F11" s="1">
+      <c r="B11" s="2">
+        <v>83</v>
+      </c>
+      <c r="C11" s="2">
+        <v>91</v>
+      </c>
+      <c r="D11" s="2">
         <v>100</v>
       </c>
-      <c r="G11" s="1">
+      <c r="E11" s="2">
         <v>100</v>
       </c>
-      <c r="H11" s="1">
+      <c r="F11" s="2">
         <v>100</v>
       </c>
-      <c r="I11" s="1">
-        <v>89</v>
-      </c>
-      <c r="J11" s="1">
+      <c r="G11" s="2">
+        <v>100</v>
+      </c>
+      <c r="H11" s="2">
+        <v>100</v>
+      </c>
+      <c r="I11" s="2">
+        <v>98</v>
+      </c>
+      <c r="J11" s="2">
         <v>1</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11" s="2">
+        <v>9</v>
+      </c>
+      <c r="N11" s="2">
+        <v>138.68</v>
+      </c>
+      <c r="O11" s="2">
+        <v>10</v>
+      </c>
+      <c r="P11" s="2">
+        <v>157.74</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>9</v>
+      </c>
+      <c r="R11" s="2">
+        <v>139.82</v>
+      </c>
+      <c r="S11" s="2">
         <v>11</v>
       </c>
-      <c r="N11" s="1">
-        <v>168.09</v>
-      </c>
-      <c r="O11" s="1">
-        <v>14</v>
-      </c>
-      <c r="P11" s="1">
-        <v>218.98</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>10</v>
-      </c>
-      <c r="R11" s="1">
-        <v>159.91999999999999</v>
-      </c>
-      <c r="S11" s="1">
-        <v>12</v>
-      </c>
-      <c r="T11" s="1">
-        <v>189.77</v>
-      </c>
-      <c r="U11" s="1">
-        <v>13</v>
-      </c>
-      <c r="V11" s="1">
+      <c r="T11" s="2">
+        <v>167.97</v>
+      </c>
+      <c r="U11" s="2">
+        <v>13</v>
+      </c>
+      <c r="V11" s="2">
         <v>199.6</v>
       </c>
-      <c r="W11" s="1">
-        <v>13</v>
-      </c>
-      <c r="X11" s="1">
+      <c r="W11" s="2">
+        <v>13</v>
+      </c>
+      <c r="X11" s="2">
         <v>201.09</v>
       </c>
-      <c r="Y11" s="1">
-        <v>13</v>
-      </c>
-      <c r="Z11" s="1">
+      <c r="Y11" s="2">
+        <v>13</v>
+      </c>
+      <c r="Z11" s="2">
         <v>208.44</v>
       </c>
-      <c r="AA11" s="1">
-        <v>12</v>
-      </c>
-      <c r="AB11" s="1">
-        <v>192.17</v>
+      <c r="AA11" s="2">
+        <v>11</v>
+      </c>
+      <c r="AB11" s="2">
+        <v>176.24</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="1">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1">
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
         <v>9</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <v>33</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2">
         <v>58</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="2">
         <v>81</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="2">
         <v>78</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="2">
         <v>88</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="2">
         <v>56</v>
       </c>
-      <c r="J12" s="1">
-        <v>3</v>
+      <c r="J12" s="2">
+        <v>5</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M12" s="1">
-        <v>0</v>
-      </c>
-      <c r="N12" s="1">
-        <v>0</v>
-      </c>
-      <c r="O12" s="1">
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2">
         <v>1</v>
       </c>
-      <c r="P12" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="1">
+      <c r="P12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2">
         <v>4</v>
       </c>
-      <c r="R12" s="1">
+      <c r="R12" s="2">
         <v>0.01</v>
       </c>
-      <c r="S12" s="1">
+      <c r="S12" s="2">
         <v>6</v>
       </c>
-      <c r="T12" s="1">
+      <c r="T12" s="2">
         <v>0.02</v>
       </c>
-      <c r="U12" s="1">
+      <c r="U12" s="2">
         <v>6</v>
       </c>
-      <c r="V12" s="1">
+      <c r="V12" s="2">
         <v>0.02</v>
       </c>
-      <c r="W12" s="1">
+      <c r="W12" s="2">
         <v>6</v>
       </c>
-      <c r="X12" s="1">
+      <c r="X12" s="2">
         <v>0.02</v>
       </c>
-      <c r="Y12" s="1">
+      <c r="Y12" s="2">
         <v>6</v>
       </c>
-      <c r="Z12" s="1">
+      <c r="Z12" s="2">
         <v>0.02</v>
       </c>
-      <c r="AA12" s="1">
+      <c r="AA12" s="2">
         <v>6</v>
       </c>
-      <c r="AB12" s="1">
+      <c r="AB12" s="2">
         <v>0.02</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
     <mergeCell ref="U4:V4"/>
     <mergeCell ref="W4:X4"/>
     <mergeCell ref="Y4:Z4"/>
     <mergeCell ref="AA4:AB4"/>
     <mergeCell ref="M3:AB3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="D2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
